--- a/RA/Messungen_Blatt_3.xlsx
+++ b/RA/Messungen_Blatt_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Dhrystones/Sec</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>20302507.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60000 - 800000 </t>
+  </si>
+  <si>
+    <t>ist normaler Wert für heutige Desktop-PCs</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -482,10 +488,16 @@
       <c r="A15" t="s">
         <v>5</v>
       </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
         <v>106.95187199999999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1">
